--- a/doc/ue_AssetManager.xlsx
+++ b/doc/ue_AssetManager.xlsx
@@ -1,26 +1,150 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FSoftObjectPath" sheetId="1" r:id="rId1"/>
+    <sheet name="UAssetManager" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+  <si>
+    <t>FSoftObjectPath</t>
+  </si>
+  <si>
+    <t>void UImage::RequestAsyncLoad(TSoftObjectPtr&lt;UObject&gt; SoftObject, FStreamableDelegate DelegateToCall)</t>
+  </si>
+  <si>
+    <t>TWeakObjectPtr&lt;UImage&gt; WeakThis(this);</t>
+  </si>
+  <si>
+    <t>StreamingObjectPath = SoftObject.ToSoftObjectPath();</t>
+  </si>
+  <si>
+    <t>StreamingHandle = UAssetManager::GetStreamableManager().RequestAsyncLoad(</t>
+  </si>
+  <si>
+    <t>StreamingObjectPath,</t>
+  </si>
+  <si>
+    <t>[WeakThis, DelegateToCall, SoftObject]() {</t>
+  </si>
+  <si>
+    <t>if (UImage* StrongThis = WeakThis.Get())</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>// If the object paths don't match, then this delegate was interrupted, but had already been queued for a callback</t>
+  </si>
+  <si>
+    <t>// so ignore everything and abort.</t>
+  </si>
+  <si>
+    <t>if (StrongThis-&gt;StreamingObjectPath != SoftObject.ToSoftObjectPath())</t>
+  </si>
+  <si>
+    <t>return; // Abort!</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>// Call the delegate to do whatever is needed, probably set the new image.</t>
+  </si>
+  <si>
+    <t>DelegateToCall.ExecuteIfBound();</t>
+  </si>
+  <si>
+    <t>// Note that the streaming has completed.</t>
+  </si>
+  <si>
+    <t>StrongThis-&gt;OnImageStreamingComplete(SoftObject);</t>
+  </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <t>FStreamableManager::AsyncLoadHighPriority);</t>
+  </si>
+  <si>
+    <t>UAssetManager</t>
+  </si>
+  <si>
+    <t>一个单独的对象，负责加载和卸载主要资产，并维护游戏特定的资产引用</t>
+  </si>
+  <si>
+    <t>游戏应该覆盖此类并更改类引用</t>
+  </si>
+  <si>
+    <t>/** Returns the current AssetManager object */</t>
+  </si>
+  <si>
+    <t>static UAssetManager&amp; Get();</t>
+  </si>
+  <si>
+    <t>单例类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Accesses the StreamableManager used by this Asset Manager. Static for easy access */</t>
+  </si>
+  <si>
+    <t>static FStreamableManager&amp; GetStreamableManager() { return Get().StreamableManager; }</t>
+  </si>
+  <si>
+    <t>获取StreamableManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -44,19 +168,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +268,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +476,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/ue_AssetManager.xlsx
+++ b/doc/ue_AssetManager.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821E8B07-BA31-49E4-A62F-0BCE6E518094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FSoftObjectPath" sheetId="1" r:id="rId1"/>
     <sheet name="UAssetManager" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>FSoftObjectPath</t>
   </si>
@@ -104,12 +106,15 @@
   <si>
     <t>获取StreamableManager</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/64541342</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,6 +271,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -301,6 +323,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -476,7 +515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -603,10 +642,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -661,4 +700,26 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B351FB8-45E0-427C-9778-A36CB69B918F}">
+  <dimension ref="C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_AssetManager.xlsx
+++ b/doc/ue_AssetManager.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821E8B07-BA31-49E4-A62F-0BCE6E518094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="FSoftObjectPath" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
   <si>
     <t>FSoftObjectPath</t>
   </si>
@@ -109,13 +108,229 @@
   </si>
   <si>
     <t>https://zhuanlan.zhihu.com/p/64541342</t>
+  </si>
+  <si>
+    <t>就是一个资源的路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper2DCategory.Texture = FSoftObjectPath("/Paper2D/Tutorial/Paper2D/TutorialAssets/Paper2DSprite_TutorialIcon.Paper2DSprite_TutorialIcon");</t>
+  </si>
+  <si>
+    <t>FSoftObjectPtr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSoftObjectPtr SoftObjPtr = FSoftObjectPtr(AssetItem); //此处也可用 TSoftObjectPtr&lt;T&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UStaticMesh* mesh = Cast&lt;UStaticMesh&gt;(SoftObjPtr.Get()); </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UObject* FSoftObjectPath::ResolveObject() const</t>
+  </si>
+  <si>
+    <t>获取对象（当对象加载完毕之后，调用该函数获取对应的Obj对象，原理就是按照名字去查询）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造方法，传入资源名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UObject* FSoftObjectPath::ResolveObjectInternal() const</t>
+  </si>
+  <si>
+    <t>UObject* FSoftObjectPath::ResolveObjectInternal(const TCHAR* PathString) const</t>
+  </si>
+  <si>
+    <t>UObject* FoundObject = FindObject&lt;UObject&gt;(nullptr, PathString);</t>
+  </si>
+  <si>
+    <t>注意看，内部的实现原理就是按照名字去查找对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在FUObjectHashTables&amp; ThreadHash = FUObjectHashTables::Get();里面查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个Uobject的弱指针，也包含了FSoftObjectPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过FSoftObjectPath构造一个FSoftObjectPtr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SoftObjPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数其实就是调用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>AssetItem.ResolveObject()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取对象</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct FSoftObjectPtr : public TPersistentObjectPtr&lt;FSoftObjectPath&gt;</t>
+  </si>
+  <si>
+    <t>继承自TPersistentObjectPtr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">// 单文件加载 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPROPERTY(EditAnywhere, Category = "SoftObjectPath", meta = (AllowedClasses = "StaticMesh")) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSoftObjectPath SingeleObject; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFUNCTION() </t>
+  </si>
+  <si>
+    <t xml:space="preserve">void OnSingleAssetLoadFinshed(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// 要回调的函数 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">void ALoadActor::OnSingleAssetLoadFinshed() </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FSoftObjectPtr SoftObjPtr = FSoftObjectPtr(SingeleObject); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UStaticMesh* mesh = Cast&lt;UStaticMesh&gt;(SoftObjPtr.Get()); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (mesh) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        UE_LOG(LogTemp, Warning, TEXT("mesh name:%s"), *mesh-&gt;GetName()); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } </t>
+  </si>
+  <si>
+    <t xml:space="preserve">} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// 函数内部分语句 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FStreamableManager&amp; streamableManager = UAssetManager::GetStreamableManager(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FStreamableDelegate streamableDelegate = FStreamableDelegate::CreateUObject(this, &amp;ALoadActor::OnSingleAssetLoadFinshed); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">streamableManager.RequestAsyncLoad(SingeleObject, streamableDelegate);  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// 多文件加载 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPROPERTY(EditAnywhere, Category="SoftObjectPath", meta = (AllowedClasses = "StaticMesh")) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TArray&lt;FSoftObjectPath&gt; ObjectList; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">void OnMultiAssetsLoadFinshed(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">void ALoadActor::OnMultiAssetsLoadFinshed() </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for (auto AssetItem : ObjectList) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        FSoftObjectPtr SoftObjPtr = FSoftObjectPtr(AssetItem); //此处也可用 TSoftObjectPtr&lt;T&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        UStaticMesh* mesh = Cast&lt;UStaticMesh&gt;(SoftObjPtr.Get()); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (mesh) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        { </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            UE_LOG(LogTemp, Warning, TEXT("mesh name:%s"), *mesh-&gt;GetName()); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        } </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FStreamableDelegate streamableDelegate = FStreamableDelegate::CreateUObject(this, &amp;ALoadActor::OnMultiAssetsLoadFinshed); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">streamableManager.RequestAsyncLoad(ObjectList, streamableDelegate); </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,13 +367,47 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF121212"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F6F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -173,11 +422,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -271,23 +530,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -323,23 +565,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -515,123 +740,486 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:H30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:M122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B19" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B20" s="5"/>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B21" s="5"/>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D22" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D23" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D9" t="s">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D10" t="s">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D11" t="s">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E12" t="s">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E13" t="s">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F14" t="s">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="F41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F15" t="s">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="F42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="G16" t="s">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="G17" t="s">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="G18" t="s">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="G19" t="s">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="H20" t="s">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="H47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="G21" t="s">
+    <row r="48" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="G23" t="s">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G50" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="G24" t="s">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G51" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="G26" t="s">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G53" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="G27" t="s">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G54" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="F28" t="s">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E29" t="s">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E56" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E30" t="s">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E57" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B70" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C71" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C72" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C73" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C74" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C75" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C76" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C77" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C78" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C79" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C80" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C81" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C82" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C83" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C84" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C85" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C86" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C87" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C88" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C89" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C90" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C91" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B98" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C99" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C100" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C101" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C102" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C103" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C104" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C105" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C106" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C107" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C108" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C109" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C110" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C111" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C112" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C113" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C114" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C115" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C116" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C117" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C118" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C119" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C120" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C121" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C122" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -642,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -703,10 +1291,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B351FB8-45E0-427C-9778-A36CB69B918F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_AssetManager.xlsx
+++ b/doc/ue_AssetManager.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD944723-1728-461B-915D-6CA2BBC73B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FSoftObjectPath" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>FSoftObjectPath</t>
   </si>
@@ -245,91 +246,97 @@
     <t xml:space="preserve">// 要回调的函数 </t>
   </si>
   <si>
+    <t xml:space="preserve">{ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FSoftObjectPtr SoftObjPtr = FSoftObjectPtr(SingeleObject); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UStaticMesh* mesh = Cast&lt;UStaticMesh&gt;(SoftObjPtr.Get()); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (mesh) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        UE_LOG(LogTemp, Warning, TEXT("mesh name:%s"), *mesh-&gt;GetName()); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } </t>
+  </si>
+  <si>
+    <t xml:space="preserve">} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// 函数内部分语句 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FStreamableManager&amp; streamableManager = UAssetManager::GetStreamableManager(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">streamableManager.RequestAsyncLoad(SingeleObject, streamableDelegate);  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// 多文件加载 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPROPERTY(EditAnywhere, Category="SoftObjectPath", meta = (AllowedClasses = "StaticMesh")) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TArray&lt;FSoftObjectPath&gt; ObjectList; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">void OnMultiAssetsLoadFinshed(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">void ALoadActor::OnMultiAssetsLoadFinshed() </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for (auto AssetItem : ObjectList) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        FSoftObjectPtr SoftObjPtr = FSoftObjectPtr(AssetItem); //此处也可用 TSoftObjectPtr&lt;T&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        UStaticMesh* mesh = Cast&lt;UStaticMesh&gt;(SoftObjPtr.Get()); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (mesh) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        { </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            UE_LOG(LogTemp, Warning, TEXT("mesh name:%s"), *mesh-&gt;GetName()); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        } </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FStreamableDelegate streamableDelegate = FStreamableDelegate::CreateUObject(this, &amp;ALoadActor::OnMultiAssetsLoadFinshed); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">streamableManager.RequestAsyncLoad(ObjectList, streamableDelegate); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FStreamableDelegate streamableDelegate = FStreamableDelegate::CreateUObject(this, &amp;ALoadActor::OnSingleAssetLoadFinshed); </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">void ALoadActor::OnSingleAssetLoadFinshed() </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    FSoftObjectPtr SoftObjPtr = FSoftObjectPtr(SingeleObject); </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    UStaticMesh* mesh = Cast&lt;UStaticMesh&gt;(SoftObjPtr.Get()); </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (mesh) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    { </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        UE_LOG(LogTemp, Warning, TEXT("mesh name:%s"), *mesh-&gt;GetName()); </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    } </t>
-  </si>
-  <si>
-    <t xml:space="preserve">} </t>
-  </si>
-  <si>
-    <t xml:space="preserve">// 函数内部分语句 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FStreamableManager&amp; streamableManager = UAssetManager::GetStreamableManager(); </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FStreamableDelegate streamableDelegate = FStreamableDelegate::CreateUObject(this, &amp;ALoadActor::OnSingleAssetLoadFinshed); </t>
-  </si>
-  <si>
-    <t xml:space="preserve">streamableManager.RequestAsyncLoad(SingeleObject, streamableDelegate);  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">// 多文件加载 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPROPERTY(EditAnywhere, Category="SoftObjectPath", meta = (AllowedClasses = "StaticMesh")) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TArray&lt;FSoftObjectPath&gt; ObjectList; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">void OnMultiAssetsLoadFinshed(); </t>
-  </si>
-  <si>
-    <t xml:space="preserve">void ALoadActor::OnMultiAssetsLoadFinshed() </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    for (auto AssetItem : ObjectList) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        FSoftObjectPtr SoftObjPtr = FSoftObjectPtr(AssetItem); //此处也可用 TSoftObjectPtr&lt;T&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        UStaticMesh* mesh = Cast&lt;UStaticMesh&gt;(SoftObjPtr.Get()); </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if (mesh) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        { </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            UE_LOG(LogTemp, Warning, TEXT("mesh name:%s"), *mesh-&gt;GetName()); </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        } </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FStreamableDelegate streamableDelegate = FStreamableDelegate::CreateUObject(this, &amp;ALoadActor::OnMultiAssetsLoadFinshed); </t>
-  </si>
-  <si>
-    <t xml:space="preserve">streamableManager.RequestAsyncLoad(ObjectList, streamableDelegate); </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UFUNCTION() </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,6 +537,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -565,6 +589,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -740,11 +781,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="N78" sqref="N78"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O79" sqref="O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1009,7 +1050,7 @@
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C74" s="4" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.15">
@@ -1029,47 +1070,47 @@
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C78" s="4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C79" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C80" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C81" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C82" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C83" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C84" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C85" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C86" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.15">
@@ -1079,37 +1120,37 @@
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C88" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C89" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C90" s="4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C91" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B98" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C99" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C100" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.15">
@@ -1124,7 +1165,7 @@
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C103" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.15">
@@ -1139,62 +1180,62 @@
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C106" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C107" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C108" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C109" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C110" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C111" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C112" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C113" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C114" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C115" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C116" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C117" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.15">
@@ -1204,22 +1245,22 @@
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C119" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C120" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C121" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C122" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1230,7 +1271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1291,7 +1332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
